--- a/data/trans_dic/P16A_n_R3-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R3-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.02193461504940315</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.05999947652705939</v>
+        <v>0.0599994765270594</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.008524292649956831</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.004109126550741674</v>
+        <v>0.004086887401368991</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.007266992122839876</v>
+        <v>0.006571441073608647</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01265106617911179</v>
+        <v>0.01273086583925368</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04612080922860685</v>
+        <v>0.04538374395030952</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.003996903586789879</v>
+        <v>0.002968254405974816</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03199176192073289</v>
+        <v>0.03096702071780207</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03357759276943668</v>
+        <v>0.03495539503048736</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.08835684482575384</v>
+        <v>0.08816130497103676</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.00477817526311475</v>
+        <v>0.004876698841835589</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02235502762741525</v>
+        <v>0.02221636144216484</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02723260013849101</v>
+        <v>0.02656498267616128</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.0711226025217971</v>
+        <v>0.07183828052048795</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01911721814998695</v>
+        <v>0.01799365614187434</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02546508707073532</v>
+        <v>0.02501906251416304</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03527401611554112</v>
+        <v>0.03571399395582585</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08091055559394432</v>
+        <v>0.07918600870383628</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01860340199758607</v>
+        <v>0.01735490478254888</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06344600985231671</v>
+        <v>0.06293450478130741</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06947929246845463</v>
+        <v>0.06907357979912904</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1181755690202931</v>
+        <v>0.1182599271086946</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01523827438379963</v>
+        <v>0.01554177693264383</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04030703725909236</v>
+        <v>0.03990899867455985</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04755695045500884</v>
+        <v>0.0471747123648343</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.09387063567142077</v>
+        <v>0.09397360595111776</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.008068026971530333</v>
+        <v>0.008156052405515641</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.005535114786212192</v>
+        <v>0.006460941172704513</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.00917662493175448</v>
+        <v>0.009293685435653573</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03199434055652516</v>
+        <v>0.03211935593447066</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01307792887233662</v>
+        <v>0.01407728213552559</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03972221586317044</v>
+        <v>0.03860071044289584</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02462349010207432</v>
+        <v>0.02326627915123573</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07901843608371813</v>
+        <v>0.07862711916763448</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01279658008524086</v>
+        <v>0.01322083598613928</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02480040341795995</v>
+        <v>0.02432643645664052</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01852057923412475</v>
+        <v>0.01886911870372527</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05903500141030922</v>
+        <v>0.05822859900153461</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02602308218258895</v>
+        <v>0.02513256730989608</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02229394590367726</v>
+        <v>0.02206540010435636</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02486711958003562</v>
+        <v>0.02595574762364564</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05353356847623274</v>
+        <v>0.05377711896189282</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03400917826161651</v>
+        <v>0.03434971622677579</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06756956220806332</v>
+        <v>0.068729355319836</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05046819168827111</v>
+        <v>0.04847737879594536</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1063846786336249</v>
+        <v>0.105807794885315</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02660929924042179</v>
+        <v>0.02624042842389676</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.04189887117385569</v>
+        <v>0.04128757059940491</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03321122071954722</v>
+        <v>0.03245343169334415</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07620422683328885</v>
+        <v>0.07672685483876975</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.03968217581481127</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.07108917814080003</v>
+        <v>0.07108917814080004</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.02778303991275878</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.006828929011624204</v>
+        <v>0.006850917963808609</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01234609990072323</v>
+        <v>0.01343023327199216</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01025204494920239</v>
+        <v>0.01064932235215864</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02603032998459333</v>
+        <v>0.0271948024592821</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02925122380143668</v>
+        <v>0.02771011624624386</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02450101670843684</v>
+        <v>0.02415767555243922</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02737923587491557</v>
+        <v>0.02664831704234049</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05837604715319398</v>
+        <v>0.0574434224949226</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01987463224719485</v>
+        <v>0.0202232383707045</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02192493268947151</v>
+        <v>0.02179122128820807</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02113857233534165</v>
+        <v>0.02136740510223356</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0456023475718346</v>
+        <v>0.04572200814100687</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02570260659147398</v>
+        <v>0.02587948492026791</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04062985281522752</v>
+        <v>0.04123169835788783</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03117728872214603</v>
+        <v>0.03181256869026901</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05122031056190643</v>
+        <v>0.05246255776099725</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05745202099759478</v>
+        <v>0.0579748790655419</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05181751069521603</v>
+        <v>0.05119527769199112</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05699755382503996</v>
+        <v>0.05623680719974246</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.08797968810313896</v>
+        <v>0.08889981973827099</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03753878522001035</v>
+        <v>0.03757794979326579</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.0413348824636906</v>
+        <v>0.04055888675141158</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03852155524637139</v>
+        <v>0.0392803970534633</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.06506593464127877</v>
+        <v>0.06539418983866088</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01182868357503084</v>
+        <v>0.01249917143366152</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01436972855472658</v>
+        <v>0.01446579534199425</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.006707462338623042</v>
+        <v>0.006667536704835724</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04168282760117244</v>
+        <v>0.03982196253422901</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01996929139920531</v>
+        <v>0.02030230362498121</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04619897178198395</v>
+        <v>0.0472256525268852</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03769970040897247</v>
+        <v>0.03755730660370712</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.09886625350287447</v>
+        <v>0.09756682297113066</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01893349514142218</v>
+        <v>0.01847682272748706</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03381423904023698</v>
+        <v>0.03407466095696831</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02470166988528229</v>
+        <v>0.02456087913715017</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.07397660349896905</v>
+        <v>0.07528285976797419</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02815590457621731</v>
+        <v>0.02893898830526507</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0359116137663786</v>
+        <v>0.03803436626475683</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02156279438528318</v>
+        <v>0.02060524163068139</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06540366864989806</v>
+        <v>0.06594148566919478</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0410737019223542</v>
+        <v>0.04148866796132254</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.07724905519590534</v>
+        <v>0.07795207023953557</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06683990924531852</v>
+        <v>0.06729864019655747</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1288429452524129</v>
+        <v>0.1296582557547094</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03177348761981665</v>
+        <v>0.03201171951485574</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.05282544740497443</v>
+        <v>0.05371601558865835</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.04117669969778443</v>
+        <v>0.04116275282804033</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.09449247429562896</v>
+        <v>0.09413536501528176</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.03018860177585751</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.07208375173044687</v>
+        <v>0.07208375173044686</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01122318022834878</v>
+        <v>0.01144238637360486</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01334097054065172</v>
+        <v>0.01328310100913626</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01270713609225152</v>
+        <v>0.01254758282162147</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04070212654548613</v>
+        <v>0.0415612714241106</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02045573238250396</v>
+        <v>0.02078010317046013</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04248134640155079</v>
+        <v>0.04231144856261884</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03701900656713414</v>
+        <v>0.03651188979855127</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.08736805592527144</v>
+        <v>0.0886627484541215</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01669427122577981</v>
+        <v>0.01683195214914444</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02977215403099625</v>
+        <v>0.0299025460391752</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0259017388567377</v>
+        <v>0.0261688938662226</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.06710459366514861</v>
+        <v>0.06682238111472351</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01946498160689208</v>
+        <v>0.01925800713609086</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02341855380116064</v>
+        <v>0.02358539578053638</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02148602713303938</v>
+        <v>0.02130844137025758</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05400811772009118</v>
+        <v>0.05452977761981796</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03179400011348867</v>
+        <v>0.0322062430309303</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.05779687767814759</v>
+        <v>0.05735410153037578</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05184668401652524</v>
+        <v>0.05149443638605214</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1026875376253002</v>
+        <v>0.1036457414574683</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02386913079493733</v>
+        <v>0.02364799133010926</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03937474411350065</v>
+        <v>0.03914267254379527</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.0345538006209021</v>
+        <v>0.03481505442303424</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.07715745636858799</v>
+        <v>0.07692147858433436</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2852</v>
+        <v>2836</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5112</v>
+        <v>4623</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>8537</v>
+        <v>8591</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>31856</v>
+        <v>31347</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2751</v>
+        <v>2043</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>22300</v>
+        <v>21586</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>22592</v>
+        <v>23519</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>64870</v>
+        <v>64726</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>6605</v>
+        <v>6741</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>31309</v>
+        <v>31114</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>36700</v>
+        <v>35800</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>101342</v>
+        <v>102362</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13268</v>
+        <v>12488</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>17914</v>
+        <v>17600</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>23803</v>
+        <v>24100</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>55886</v>
+        <v>54695</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>12806</v>
+        <v>11946</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>44225</v>
+        <v>43868</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>46748</v>
+        <v>46475</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>86762</v>
+        <v>86824</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>21065</v>
+        <v>21484</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>56451</v>
+        <v>55893</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>64090</v>
+        <v>63574</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>133755</v>
+        <v>133902</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>7760</v>
+        <v>7844</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5634</v>
+        <v>6577</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>9382</v>
+        <v>9502</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>33559</v>
+        <v>33691</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>12665</v>
+        <v>13632</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>41001</v>
+        <v>39843</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>25680</v>
+        <v>24265</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>84666</v>
+        <v>84247</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>24700</v>
+        <v>25519</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>50844</v>
+        <v>49872</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>38251</v>
+        <v>38971</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>125177</v>
+        <v>123467</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>25029</v>
+        <v>24173</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>22694</v>
+        <v>22461</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>25425</v>
+        <v>26538</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>56152</v>
+        <v>56408</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>32934</v>
+        <v>33264</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>69744</v>
+        <v>70941</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>52634</v>
+        <v>50558</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>113988</v>
+        <v>113370</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>51361</v>
+        <v>50649</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>85898</v>
+        <v>84645</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>68593</v>
+        <v>67028</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>161583</v>
+        <v>162691</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4633</v>
+        <v>4648</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9354</v>
+        <v>10175</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7787</v>
+        <v>8089</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>20904</v>
+        <v>21839</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>20003</v>
+        <v>18949</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>19042</v>
+        <v>18775</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>21493</v>
+        <v>20919</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>47416</v>
+        <v>46659</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>27076</v>
+        <v>27551</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>33650</v>
+        <v>33445</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>32650</v>
+        <v>33003</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>73663</v>
+        <v>73856</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>17439</v>
+        <v>17559</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>30782</v>
+        <v>31238</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>23681</v>
+        <v>24163</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>41134</v>
+        <v>42131</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>39288</v>
+        <v>39646</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>40271</v>
+        <v>39788</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>44744</v>
+        <v>44147</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>71462</v>
+        <v>72210</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>51141</v>
+        <v>51194</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>63441</v>
+        <v>62250</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>59499</v>
+        <v>60671</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>105103</v>
+        <v>105633</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>11145</v>
+        <v>11777</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>13619</v>
+        <v>13710</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6289</v>
+        <v>6251</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>41269</v>
+        <v>39426</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>20740</v>
+        <v>21086</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>48597</v>
+        <v>49677</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>39350</v>
+        <v>39202</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>110635</v>
+        <v>109181</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>37504</v>
+        <v>36600</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>67616</v>
+        <v>68137</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>48943</v>
+        <v>48664</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>156024</v>
+        <v>158779</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>26529</v>
+        <v>27267</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>34035</v>
+        <v>36047</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>20217</v>
+        <v>19319</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>64754</v>
+        <v>65286</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>42660</v>
+        <v>43091</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>81258</v>
+        <v>81998</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>69766</v>
+        <v>70245</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>144181</v>
+        <v>145093</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>62938</v>
+        <v>63410</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>105632</v>
+        <v>107413</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>81585</v>
+        <v>81558</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>199294</v>
+        <v>198541</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>36773</v>
+        <v>37491</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>45717</v>
+        <v>45518</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>43132</v>
+        <v>42591</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>143791</v>
+        <v>146826</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>69124</v>
+        <v>70220</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>151162</v>
+        <v>150557</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>131215</v>
+        <v>129418</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>326490</v>
+        <v>331329</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>111113</v>
+        <v>112029</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>207961</v>
+        <v>208872</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>179729</v>
+        <v>181583</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>487831</v>
+        <v>485780</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>63778</v>
+        <v>63100</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>80250</v>
+        <v>80822</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>72931</v>
+        <v>72328</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>190798</v>
+        <v>192641</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>107438</v>
+        <v>108831</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>205659</v>
+        <v>204084</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>183773</v>
+        <v>182524</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>383739</v>
+        <v>387319</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>158867</v>
+        <v>157395</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>275036</v>
+        <v>273415</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>239765</v>
+        <v>241578</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>560913</v>
+        <v>559197</v>
       </c>
     </row>
     <row r="24">
